--- a/data/Excel/Orangutan_and_Grayfox_Esports_stats.xlsx
+++ b/data/Excel/Orangutan_and_Grayfox_Esports_stats.xlsx
@@ -460,6 +460,8 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -470,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -570,6 +572,16 @@
           <t>RND</t>
         </is>
       </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>KPR</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>RND</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -603,28 +615,34 @@
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -670,29 +688,35 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
@@ -738,29 +762,35 @@
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
@@ -806,29 +836,35 @@
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
@@ -874,29 +910,35 @@
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
@@ -911,10 +953,10 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -938,29 +980,35 @@
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -1006,32 +1054,38 @@
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -1078,32 +1132,38 @@
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -1150,32 +1210,38 @@
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -1222,32 +1288,38 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -1294,32 +1366,38 @@
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -1335,44 +1413,50 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v/>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
+      <c r="K16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
